--- a/dnd_questions.xlsx
+++ b/dnd_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\UChicago\y2\spring\scav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8568BE5D-13DD-4D30-BDFC-EA3179AC7B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262959B1-4DD6-4E2C-8FA1-A3BD52AB3E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6A5C8BA0-877D-4391-89BB-FEEA12D4BB1F}"/>
+    <workbookView xWindow="4620" yWindow="0" windowWidth="28800" windowHeight="21000" xr2:uid="{6A5C8BA0-877D-4391-89BB-FEEA12D4BB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>d10</t>
   </si>
@@ -87,6 +87,267 @@
   </si>
   <si>
     <t>d12</t>
+  </si>
+  <si>
+    <t>What is the name of the sword that can instantly decapitate any being on a roll of a natural 20?</t>
+  </si>
+  <si>
+    <t>Vorpal</t>
+  </si>
+  <si>
+    <t>What ability score is athletics associated with?</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>What ability score provides the modifier for most melee weapons?</t>
+  </si>
+  <si>
+    <t>What ability score is acrobatics associated with?</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>What ability score is sleight of hand associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is stealth associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is arcana associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is nature associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is history associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is investigation associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is religion associated with?</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>What ability score is animal handling associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is insight associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is medicine associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is survival associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is perception associated with?</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>What ability score is deception associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is persuasion associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is performance associated with?</t>
+  </si>
+  <si>
+    <t>What ability score is intimidation associated with?</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>When you roll 2d20 and take the highest, you are rolling with ______?</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>When you roll 2d20 and take the lowest, you are rolling with _________?</t>
+  </si>
+  <si>
+    <t>Disadvantage</t>
+  </si>
+  <si>
+    <t>Dungeons &amp; Dragons was invented by Gary _____?</t>
+  </si>
+  <si>
+    <t>Gygax</t>
+  </si>
+  <si>
+    <t>In the Dragonlance universe, Tiamat is known by what name?</t>
+  </si>
+  <si>
+    <t>Takhsis</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a paladin can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a ranger can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a wizard can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Ninth</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a sorcerer can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a warlock can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a druid can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>What is the highest-level spell slot a cleric can obtain? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>In D&amp;D 5e, what class is the only class that regains all spell slots on a short rest?</t>
+  </si>
+  <si>
+    <t>What edition of D&amp;D did away with spells entirely? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>What is the maximum number of ability score points a character can have in D&amp;D 5e? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what does AC stand for?</t>
+  </si>
+  <si>
+    <t>Armor Class</t>
+  </si>
+  <si>
+    <t>True or False: A natural 20 on a d20 roll always results in a critical hit in D&amp;D 5th Edition.</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the die used for determining hit points gained upon leveling up?</t>
+  </si>
+  <si>
+    <t>Hit Die</t>
+  </si>
+  <si>
+    <t>What ability score does a weapon with the "finesse" property use for its attack and damage rolls in D&amp;D?</t>
+  </si>
+  <si>
+    <t>What is the name of the rule in D&amp;D where a critical hit deals maximum damage plus an additional damage roll?</t>
+  </si>
+  <si>
+    <t>Brutal Critical</t>
+  </si>
+  <si>
+    <t>Which condition in D&amp;D imposes disadvantage on attack rolls and ability checks?</t>
+  </si>
+  <si>
+    <t>Restrained</t>
+  </si>
+  <si>
+    <t>Which ability score governs a character's ability to resist being charmed in D&amp;D?</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the dice used to determine the success or failure of an action?</t>
+  </si>
+  <si>
+    <t>d20</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the dice used to determine the success or failure of an attack?</t>
+  </si>
+  <si>
+    <t>Before armor class was used to govern hit rolls, what was the name of the system used?</t>
+  </si>
+  <si>
+    <t>THAC0</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the rule where a fighter can take an additional action on their turn by expending a resource?</t>
+  </si>
+  <si>
+    <t>Action Surge</t>
+  </si>
+  <si>
+    <t>What is the maximum number of death saving throws a character can roll? Do not use digits in your answer.</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>What is the name of the mechanic in D&amp;D that allows a character to take an action as a reaction in response to a trigger?</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>What is the name of the mechanic in D&amp;D where a character can attempt to use a skill or ability they're not proficient in?</t>
+  </si>
+  <si>
+    <t>Ability Check</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the mechanic where a fighter can choose to reroll a failed saving throw?</t>
+  </si>
+  <si>
+    <t>Indomitable</t>
+  </si>
+  <si>
+    <t>Arcane Recovery</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the ability which lets a wizard regain some spell slots on a short rest?</t>
+  </si>
+  <si>
+    <t>True or False: A natural 1 on a d20 roll always results in a critical failure in D&amp;D 5th Edition.</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the mechanic that allows a character to add a dice to an attack roll, saving throw, or ability check?</t>
+  </si>
+  <si>
+    <t>Bardic Inspiration</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the mechanic where a character can use an action to disengage from melee combat without provoking opportunity attacks?</t>
+  </si>
+  <si>
+    <t>Disengage</t>
+  </si>
+  <si>
+    <t>What is the name of the attack which a creature can make against an opponent leaving melee range?</t>
+  </si>
+  <si>
+    <t>Opportunity Attack</t>
+  </si>
+  <si>
+    <t>True or False: A character can move through the space of a hostile creature in D&amp;D without any penalty.</t>
+  </si>
+  <si>
+    <t>In D&amp;D, what is the name of the mechanic where a character can spend an action to help another character on a task, granting advantage on the next ability check related to that task?</t>
+  </si>
+  <si>
+    <t>Help</t>
   </si>
 </sst>
 </file>
@@ -458,15 +719,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D30234-8E28-4D71-BC36-D67F938C9C14}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="1" max="1" width="110.85546875" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,6 +835,454 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
